--- a/Towing test/2017-06-08_logg_CSAD.xlsx
+++ b/Towing test/2017-06-08_logg_CSAD.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -153,6 +153,42 @@
   </si>
   <si>
     <t>Slepeforsøk med propeller tilkoblet, 11 knots fullscale, 0.596 m/s reell hastighet</t>
+  </si>
+  <si>
+    <t>Koblet opp modell under slepevogn, prop/dyser demontert</t>
+  </si>
+  <si>
+    <t>Første slepeforsøk</t>
+  </si>
+  <si>
+    <t>Første slepeforsøk(warm up), ingen middelverdi grunnet softwarefeil</t>
+  </si>
+  <si>
+    <t>Endring av forspenning, til 21 N</t>
+  </si>
+  <si>
+    <t>Ny forspenning, til 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slepeforsøk </t>
+  </si>
+  <si>
+    <t>Avg motstand</t>
+  </si>
+  <si>
+    <t>Slepeforsøk</t>
+  </si>
+  <si>
+    <t>Montert turret opp-ned, jamt med kjøl</t>
+  </si>
+  <si>
+    <t>Slepeforsøk med turret montert</t>
+  </si>
+  <si>
+    <t>Slepeforsøk(tatt bilder/film av dette forsøket)</t>
+  </si>
+  <si>
+    <t>FERDIG</t>
   </si>
 </sst>
 </file>
@@ -268,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -290,6 +326,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,16 +610,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
@@ -1320,108 +1359,418 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
+      <c r="E27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="1">
+        <v>42895</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
+      <c r="B29" s="2">
+        <v>0.41250000000000003</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="3">
+        <v>17</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2</v>
+      </c>
+      <c r="K29" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="3">
+        <v>18</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="3">
+        <v>19</v>
+      </c>
+      <c r="E33" s="3">
+        <v>11</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2.4828999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="3">
+        <v>20</v>
+      </c>
+      <c r="E34" s="3">
+        <v>10</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1.7546999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="3">
+        <v>21</v>
+      </c>
+      <c r="E35" s="3">
+        <v>9</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1.4039999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="3">
+        <v>22</v>
+      </c>
+      <c r="E36" s="3">
+        <v>8</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1.0621</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="4">
+        <v>23</v>
+      </c>
+      <c r="E37" s="3">
+        <v>7</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.77890000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="3">
+        <v>6</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="3">
+        <v>24</v>
+      </c>
+      <c r="E39" s="3">
+        <v>5</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.45490000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="3">
+        <v>4</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.34320000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="3">
+        <v>25</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.1802</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="3">
+        <v>2</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.15260000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>0.54236111111111118</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="3">
+        <v>26</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>4.4499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E44" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>3.3500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="3">
+        <v>27</v>
+      </c>
+      <c r="E45" s="3">
+        <v>12</v>
+      </c>
+      <c r="F45" s="3">
+        <v>3.3738999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <v>0.56041666666666667</v>
+      </c>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="3">
+        <v>28</v>
+      </c>
+      <c r="E46" s="3">
+        <v>13</v>
+      </c>
+      <c r="F46" s="3">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="3">
+        <v>29</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.79690000000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E49" s="3">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1.0315000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="3">
+        <v>30</v>
+      </c>
+      <c r="E50" s="3">
+        <v>9</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1.2623</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E51" s="3">
+        <v>10</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1.5415000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="3">
+        <v>31</v>
+      </c>
+      <c r="E52" s="3">
+        <v>11</v>
+      </c>
+      <c r="F52" s="12">
+        <v>1.8829</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
@@ -1429,6 +1778,9 @@
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
